--- a/CHOCOLATE SALE ANALYSIS.xlsx
+++ b/CHOCOLATE SALE ANALYSIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/446a8bf72d32c25b/Documents/sanchit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{3A6347B2-3303-4F1C-A4D2-DBD0C4BC86F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E138638-588A-47CC-9FDC-2AD531FBB1D5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{3A6347B2-3303-4F1C-A4D2-DBD0C4BC86F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE50F17-D28B-43BB-8886-CDA1C985A953}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="chocolate sale " sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="48">
   <si>
     <t>Product</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Sum of Customers</t>
   </si>
   <si>
-    <t>(All)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHOCOLATE SALES </t>
   </si>
 </sst>
@@ -203,8 +200,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -248,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,11 +270,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -607,53 +622,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot table '!$A$2:$A$8</c:f>
+              <c:f>'pivot table '!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Australia</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>USA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot table '!$B$2:$B$8</c:f>
+              <c:f>'pivot table '!$B$2:$B$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>395430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>515480</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>469511</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>422247</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>382851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>450317</c:v>
+                  <c:v>20475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +734,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1120,149 +1105,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot table '!$A$27:$A$49</c:f>
+              <c:f>'pivot table '!$A$27:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50% Dark Bites</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70% Dark Bites</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85% Dark Bars</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99% Dark &amp; Pure</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>After Nines</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Almond Choco</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Baker's Choco Chips</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Caramel Stuffed Bars</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Choco Coated Almonds</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Drinking Coco</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Eclairs</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Fruit &amp; Nut Bars</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Manuka Honey Choco</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Milk Bars</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Mint Chip Choco</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Orange Choco</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Organic Choco Syrup</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Peanut Butter Cubes</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Raspberry Choco</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Smooth Sliky Salty</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Spicy Special Slims</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>White Choc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot table '!$B$27:$B$49</c:f>
+              <c:f>'pivot table '!$B$27:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4467</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4773</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3831</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4368</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2925</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4632</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4065</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5937</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4704</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6051</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5187</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4770</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3771</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5382</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4614</c:v>
+                  <c:v>894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,37 +1956,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot table '!$A$56:$A$66</c:f>
+              <c:f>'pivot table '!$A$56:$A$61</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Barr Faughny</c:v>
+                  <c:v>Carla Molina</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Brien Boise</c:v>
+                  <c:v>Ches Bonnell</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carla Molina</c:v>
+                  <c:v>Husein Augar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ches Bonnell</c:v>
+                  <c:v>Oby Sorrel</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Curtice Advani</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gigi Bohling</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gunar Cockshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Husein Augar</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Oby Sorrel</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Ram Mahesh</c:v>
                 </c:pt>
               </c:strCache>
@@ -2135,39 +1979,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot table '!$B$56:$B$66</c:f>
+              <c:f>'pivot table '!$B$56:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9978</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11073</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10011</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11430</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11706</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9918</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9948</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9513</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10368</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,19 +2283,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2617,53 +2434,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot table '!$A$2:$A$8</c:f>
+              <c:f>'pivot table '!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Australia</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>USA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot table '!$B$2:$B$8</c:f>
+              <c:f>'pivot table '!$B$2:$B$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>395430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>515480</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>469511</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>422247</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>382851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>450317</c:v>
+                  <c:v>20475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2772,7 +2559,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3156,149 +2943,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot table '!$A$27:$A$49</c:f>
+              <c:f>'pivot table '!$A$27:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50% Dark Bites</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70% Dark Bites</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85% Dark Bars</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99% Dark &amp; Pure</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>After Nines</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Almond Choco</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Baker's Choco Chips</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Caramel Stuffed Bars</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Choco Coated Almonds</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Drinking Coco</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Eclairs</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Fruit &amp; Nut Bars</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Manuka Honey Choco</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Milk Bars</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Mint Chip Choco</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Orange Choco</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Organic Choco Syrup</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Peanut Butter Cubes</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Raspberry Choco</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Smooth Sliky Salty</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Spicy Special Slims</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>White Choc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot table '!$B$27:$B$49</c:f>
+              <c:f>'pivot table '!$B$27:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4467</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4773</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3831</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4368</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2925</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4632</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4065</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5937</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4704</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6051</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5187</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4770</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3771</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5382</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4614</c:v>
+                  <c:v>894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4406,37 +4067,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot table '!$A$56:$A$66</c:f>
+              <c:f>'pivot table '!$A$56:$A$61</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Barr Faughny</c:v>
+                  <c:v>Carla Molina</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Brien Boise</c:v>
+                  <c:v>Ches Bonnell</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carla Molina</c:v>
+                  <c:v>Husein Augar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ches Bonnell</c:v>
+                  <c:v>Oby Sorrel</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Curtice Advani</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gigi Bohling</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gunar Cockshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Husein Augar</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Oby Sorrel</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Ram Mahesh</c:v>
                 </c:pt>
               </c:strCache>
@@ -4444,39 +4090,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot table '!$B$56:$B$66</c:f>
+              <c:f>'pivot table '!$B$56:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9978</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11073</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10011</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11430</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11706</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9918</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9948</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9513</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10368</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8002,7 +7633,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>792480</xdr:colOff>
+      <xdr:colOff>964759</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
@@ -8467,8 +8098,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>36800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Geography 1">
@@ -8491,7 +8122,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13142,7 +12773,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF638AA5-DCF5-448C-B0BC-F33250FDBD57}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A55:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A55:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
@@ -13173,27 +12804,27 @@
     <pivotField showAll="0">
       <items count="23">
         <item x="8"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="18"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="17"/>
+        <item h="1" x="15"/>
+        <item h="1" x="7"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item h="1" x="19"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="14"/>
+        <item h="1" x="12"/>
+        <item h="1" x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="13"/>
+        <item h="1" x="18"/>
+        <item h="1" x="5"/>
+        <item h="1" x="16"/>
+        <item h="1" x="6"/>
+        <item h="1" x="20"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13203,27 +12834,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
@@ -13242,7 +12858,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Customers" fld="4" baseField="0" baseItem="0"/>
@@ -13546,44 +13162,44 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D2AAB9-F77B-42CD-A861-09E2B7EE15D8}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A26:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A26:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="7">
         <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
         <item x="8"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="18"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="17"/>
+        <item h="1" x="15"/>
+        <item h="1" x="7"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item h="1" x="19"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="14"/>
+        <item h="1" x="12"/>
+        <item h="1" x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="13"/>
+        <item h="1" x="18"/>
+        <item h="1" x="5"/>
+        <item h="1" x="16"/>
+        <item h="1" x="6"/>
+        <item h="1" x="20"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13593,72 +13209,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -13704,7 +13257,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5ED19554-1301-4579-86D2-7ABB2C4AD3D7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
       <items count="11">
@@ -13724,38 +13277,38 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="23">
         <item x="8"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="18"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="17"/>
+        <item h="1" x="15"/>
+        <item h="1" x="7"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item h="1" x="19"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="14"/>
+        <item h="1" x="12"/>
+        <item h="1" x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="13"/>
+        <item h="1" x="18"/>
+        <item h="1" x="5"/>
+        <item h="1" x="16"/>
+        <item h="1" x="6"/>
+        <item h="1" x="20"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13765,24 +13318,9 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -13794,6 +13332,15 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <conditionalFormats count="1">
     <conditionalFormat priority="1">
       <pivotAreas count="1">
@@ -13858,27 +13405,27 @@
     <tabular pivotCacheId="1200966091">
       <items count="22">
         <i x="8" s="1"/>
-        <i x="0" s="1"/>
-        <i x="17" s="1"/>
-        <i x="15" s="1"/>
-        <i x="7" s="1"/>
-        <i x="2" s="1"/>
-        <i x="21" s="1"/>
-        <i x="19" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="9" s="1"/>
-        <i x="14" s="1"/>
-        <i x="12" s="1"/>
-        <i x="11" s="1"/>
-        <i x="10" s="1"/>
-        <i x="13" s="1"/>
-        <i x="18" s="1"/>
-        <i x="5" s="1"/>
-        <i x="16" s="1"/>
-        <i x="6" s="1"/>
-        <i x="20" s="1"/>
-        <i x="4" s="1"/>
+        <i x="0"/>
+        <i x="17"/>
+        <i x="15"/>
+        <i x="7"/>
+        <i x="2"/>
+        <i x="21"/>
+        <i x="19"/>
+        <i x="1"/>
+        <i x="3"/>
+        <i x="9"/>
+        <i x="14"/>
+        <i x="12"/>
+        <i x="11"/>
+        <i x="10"/>
+        <i x="13"/>
+        <i x="18"/>
+        <i x="5"/>
+        <i x="16"/>
+        <i x="6"/>
+        <i x="20"/>
+        <i x="4"/>
       </items>
     </tabular>
   </data>
@@ -13896,11 +13443,11 @@
     <tabular pivotCacheId="1200966091">
       <items count="6">
         <i x="4" s="1"/>
-        <i x="2" s="1"/>
-        <i x="5" s="1"/>
-        <i x="0" s="1"/>
-        <i x="3" s="1"/>
-        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="5"/>
+        <i x="0"/>
+        <i x="3"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -14220,7 +13767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AAEF8E-10D9-4FF6-BB98-D95E1CB9CC01}">
   <dimension ref="A1:E648"/>
   <sheetViews>
-    <sheetView topLeftCell="A625" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -25255,15 +24802,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DBC704-B7BE-49F6-A22F-57DDEC06EFB1}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -25288,56 +24835,16 @@
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="6">
-        <v>395430</v>
+      <c r="B2" s="11">
+        <v>20475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6">
-        <v>515480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="6">
-        <v>469511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6">
-        <v>422247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6">
-        <v>382851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6">
-        <v>450317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2635836</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -25353,183 +24860,15 @@
         <v>15</v>
       </c>
       <c r="B27" s="6">
-        <v>4329</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B28" s="6">
-        <v>6057</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="6">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="6">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6">
-        <v>4998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="6">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6">
-        <v>6132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6">
-        <v>4773</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="6">
-        <v>3831</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="6">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="6">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="6">
-        <v>4632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="6">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5937</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="6">
-        <v>4704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="6">
-        <v>6051</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="6">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="6">
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="6">
-        <v>3771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="6">
-        <v>5382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="6">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="6">
-        <v>102933</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -25537,7 +24876,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -25550,94 +24889,54 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B56" s="6">
-        <v>9978</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="6">
-        <v>11073</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B58" s="6">
-        <v>10011</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B59" s="6">
-        <v>11430</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B60" s="6">
-        <v>11706</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B61" s="6">
-        <v>9918</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="6">
-        <v>9948</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="6">
-        <v>9513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="6">
-        <v>8988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="6">
-        <v>10368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="6">
-        <v>102933</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B56:B65">
+  <conditionalFormatting pivot="1" sqref="B56:B60">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -25651,7 +24950,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B2:B7">
+  <conditionalFormatting pivot="1" sqref="B2">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -25682,7 +24981,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B56:B65</xm:sqref>
+          <xm:sqref>B56:B60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{7723021B-9636-4598-9305-3486057548BF}">
@@ -25695,7 +24994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -25712,7 +25011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6231C278-A8A0-4B4D-BF70-D1782CA309ED}">
   <dimension ref="A7:S7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -25721,7 +25020,7 @@
     <row r="7" spans="1:19" s="7" customFormat="1" ht="91.8" x14ac:dyDescent="1.65">
       <c r="A7"/>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
